--- a/Derived_Data/Parameter List.xlsx
+++ b/Derived_Data/Parameter List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="6765" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="6765" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter List" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="PCB_SWAT" sheetId="16" r:id="rId4"/>
     <sheet name="PCB_Gulfwatch" sheetId="18" r:id="rId5"/>
     <sheet name="Metals Comparisons" sheetId="4" r:id="rId6"/>
-    <sheet name="Organic Comparisons" sheetId="5" r:id="rId7"/>
-    <sheet name="PCB Nomenclature" sheetId="7" r:id="rId8"/>
+    <sheet name="Metal FTALs" sheetId="19" r:id="rId7"/>
+    <sheet name="Organic Comparisons" sheetId="5" r:id="rId8"/>
+    <sheet name="PCB Nomenclature" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1079">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -1276,42 +1277,6 @@
     <t>PAH24</t>
   </si>
   <si>
-    <t>Ag</t>
-  </si>
-  <si>
-    <t>Cd</t>
-  </si>
-  <si>
-    <t>Cr</t>
-  </si>
-  <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>Ni</t>
-  </si>
-  <si>
-    <t>Pb</t>
-  </si>
-  <si>
-    <t>Zn</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Hg</t>
-  </si>
-  <si>
-    <t>(ug/g)</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>NS&amp;T Medians</t>
   </si>
   <si>
@@ -3188,6 +3153,117 @@
   </si>
   <si>
     <t xml:space="preserve">PCB-101/090 </t>
+  </si>
+  <si>
+    <t>Cancer FTAL ug/g</t>
+  </si>
+  <si>
+    <t>Non-Cancer FTAL ug/g</t>
+  </si>
+  <si>
+    <t>FDA Action level shellfish</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Arsenic</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>Chromium VI</t>
+  </si>
+  <si>
+    <t>Not directly comparable to total chromium, as measured here.</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>For lead, action level derived using EPA's IEUBK model for lead, with fish 17% of dietary meal intake; 95% prob. Blood lead &lt; 10 ug/dL in children.  The 0.6 level is an out of date FTAL (as of 2001) reported in 2017-2018 SWAT report as "formerly used".</t>
+  </si>
+  <si>
+    <t>Maganese</t>
+  </si>
+  <si>
+    <t>Methyl Mercury - developmental</t>
+  </si>
+  <si>
+    <t>DEP uses this value in their narrative, as observed total mercury levels are lower by about an order of magnitude.</t>
+  </si>
+  <si>
+    <t>Methyl Mercury - adult</t>
+  </si>
+  <si>
+    <t>Nickle</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Tributyl Tin (Oxide)</t>
+  </si>
+  <si>
+    <t>Vanadium</t>
+  </si>
+  <si>
+    <t>For vanadium, RfD based on ATSDR's intermediate duration MRL.</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Outdated FTAL</t>
+  </si>
+  <si>
+    <t>FDA Action Level</t>
+  </si>
+  <si>
+    <t>Reference_ugg</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Chromium VI Cancer FTAL</t>
+  </si>
+  <si>
+    <t>Chromium VI Non-Cancer FTAL</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>This tab contains the original FTAL values from MeCDC.  They are reorganized in the Metals Comparisons tab.</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The action levels are for inorganic arsenic.  Fish tissue data are usually given as total arsenic.  The BOH uses FDA's (1993) assumption that 10% of the total arsenic in fish is inorganic arsenic. As we copied thse values to the Metals Comparisons tab, we multiplied by 10. </t>
+  </si>
+  <si>
+    <t>Methyl Mercury FTAL Developmental</t>
+  </si>
+  <si>
+    <t>Methyl Mercury FTAL Adult</t>
+  </si>
+  <si>
+    <t>Nickel</t>
   </si>
 </sst>
 </file>
@@ -3748,7 +3824,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3779,6 +3855,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4254,7 +4334,7 @@
         <v>301</v>
       </c>
       <c r="B18" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4766,7 +4846,7 @@
         <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4854,7 @@
         <v>207</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -4782,7 +4862,7 @@
         <v>208</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -4790,7 +4870,7 @@
         <v>209</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -4798,7 +4878,7 @@
         <v>211</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -4806,7 +4886,7 @@
         <v>212</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -4814,7 +4894,7 @@
         <v>213</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -4822,7 +4902,7 @@
         <v>214</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,7 +4910,7 @@
         <v>215</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4918,7 @@
         <v>216</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +4926,7 @@
         <v>217</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -4854,7 +4934,7 @@
         <v>219</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -4862,7 +4942,7 @@
         <v>220</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -4870,7 +4950,7 @@
         <v>221</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -4878,7 +4958,7 @@
         <v>222</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -4886,7 +4966,7 @@
         <v>223</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -4894,7 +4974,7 @@
         <v>224</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -4902,7 +4982,7 @@
         <v>225</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -4910,7 +4990,7 @@
         <v>226</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4998,7 @@
         <v>227</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -4926,7 +5006,7 @@
         <v>228</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -4934,7 +5014,7 @@
         <v>229</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -4942,7 +5022,7 @@
         <v>231</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -4950,7 +5030,7 @@
         <v>232</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -4958,7 +5038,7 @@
         <v>233</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -7294,7 +7374,7 @@
         <v>210</v>
       </c>
       <c r="B398" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -7302,7 +7382,7 @@
         <v>218</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -7310,7 +7390,7 @@
         <v>230</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -7318,7 +7398,7 @@
     <sortCondition ref="B2:B400"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7341,450 +7421,450 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D13" s="10"/>
       <c r="F13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D15" s="10"/>
       <c r="F15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="G17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="G18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -7793,15 +7873,15 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -7810,42 +7890,42 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -7855,41 +7935,41 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -7897,18 +7977,18 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -7916,455 +7996,455 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E31" s="10"/>
       <c r="G31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E32" s="10"/>
       <c r="G32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D33" s="10"/>
       <c r="F33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D34" s="10"/>
       <c r="F34" s="10"/>
       <c r="I34" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="I39" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="I43" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="I44" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="I45" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -8372,18 +8452,18 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -8391,432 +8471,432 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D51" s="10">
         <v>3</v>
       </c>
       <c r="F51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
       </c>
       <c r="F52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D53" s="10">
         <v>3</v>
       </c>
       <c r="F53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
       </c>
       <c r="F54" s="10"/>
       <c r="H54" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D59" s="10">
         <v>3</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D60" s="10">
         <v>3</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D61" s="10">
         <v>3</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D63" s="10">
         <v>3</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D64" s="10">
         <v>3</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D67" s="10">
         <v>3</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D68" s="10">
         <v>3</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D69" s="10">
         <v>3</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -8824,106 +8904,106 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="E74" s="10"/>
       <c r="G74" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D75" s="10">
         <v>3</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="L75" s="10"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D76" s="10">
         <v>3</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="L76" s="10"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D77" s="10">
         <v>3</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="L77" s="10"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -8932,7 +9012,7 @@
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -8958,22 +9038,22 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -8986,7 +9066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -8998,276 +9078,276 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="B3" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="B5" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="B7" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="B8" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="B9" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B10" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B11" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="B12" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="B13" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="B14" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="B15" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="B16" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="B18" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="B19" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="B20" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="B22" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="B23" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="B25" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="B26" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="B27" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="B28" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="B34" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="B35" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="B36" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="B37" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -9292,218 +9372,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -9527,202 +9607,202 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9736,194 +9816,398 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M7"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="9" max="9" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>416</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2">
+        <v>0.152</v>
+      </c>
+      <c r="C2">
+        <v>185</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F2">
+        <v>1.06</v>
+      </c>
+      <c r="G2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H2">
+        <v>366</v>
+      </c>
+      <c r="I2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.02</v>
+      </c>
+      <c r="K2">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="M2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>417</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C3">
+        <v>473</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>5.28</v>
+      </c>
+      <c r="F3">
+        <v>2.98</v>
+      </c>
+      <c r="G3">
+        <v>147</v>
+      </c>
+      <c r="H3">
+        <v>870</v>
+      </c>
+      <c r="I3">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J3">
+        <v>7.66</v>
+      </c>
+      <c r="K3">
+        <v>2.61</v>
+      </c>
+      <c r="M3">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>418</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>286</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
+        <v>1.87</v>
+      </c>
+      <c r="F4">
+        <v>1.52</v>
+      </c>
+      <c r="G4">
+        <v>6.35</v>
+      </c>
+      <c r="H4">
+        <v>405</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K4">
+        <v>2.09</v>
+      </c>
+      <c r="M4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>419</v>
       </c>
-      <c r="F2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I2" t="s">
-        <v>423</v>
-      </c>
-      <c r="J2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K2" t="s">
-        <v>425</v>
-      </c>
-      <c r="M2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3">
-        <v>0.152</v>
-      </c>
-      <c r="C3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="D3">
-        <v>1.06</v>
-      </c>
-      <c r="E3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="F3">
-        <v>366</v>
-      </c>
-      <c r="G3">
-        <v>2.02</v>
-      </c>
-      <c r="H3">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="I3">
-        <v>160</v>
-      </c>
-      <c r="J3">
-        <v>185</v>
-      </c>
-      <c r="K3">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C4">
-        <v>5.28</v>
-      </c>
-      <c r="D4">
-        <v>2.98</v>
-      </c>
-      <c r="E4">
-        <v>147</v>
-      </c>
-      <c r="F4">
-        <v>870</v>
-      </c>
-      <c r="G4">
-        <v>7.66</v>
-      </c>
-      <c r="H4">
-        <v>2.61</v>
-      </c>
-      <c r="I4">
-        <v>2190</v>
-      </c>
-      <c r="J4">
-        <v>473</v>
-      </c>
-      <c r="K4">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B6">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C6">
-        <v>1.87</v>
-      </c>
-      <c r="D6">
+      <c r="B5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C5">
+        <v>451</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F5">
+        <v>1.59</v>
+      </c>
+      <c r="G5">
+        <v>7.43</v>
+      </c>
+      <c r="H5">
+        <v>618</v>
+      </c>
+      <c r="I5">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="J5">
         <v>1.52</v>
       </c>
-      <c r="E6">
-        <v>6.35</v>
-      </c>
-      <c r="F6">
-        <v>405</v>
-      </c>
-      <c r="G6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H6">
-        <v>2.09</v>
-      </c>
-      <c r="I6">
-        <v>102</v>
-      </c>
-      <c r="J6">
-        <v>286</v>
-      </c>
-      <c r="K6">
+      <c r="K5">
+        <v>3.69</v>
+      </c>
+      <c r="M5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B7" s="9">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7" s="9">
+        <v>43</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9">
+        <v>11</v>
+      </c>
+      <c r="M7" s="9">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="J8" s="9">
+        <v>80</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="K9" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10"/>
+      <c r="I10" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B7">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="C7">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D7">
-        <v>1.59</v>
-      </c>
-      <c r="E7">
-        <v>7.43</v>
-      </c>
-      <c r="F7">
-        <v>618</v>
-      </c>
-      <c r="G7">
-        <v>1.52</v>
-      </c>
-      <c r="H7">
-        <v>3.69</v>
-      </c>
-      <c r="I7">
-        <v>127</v>
-      </c>
-      <c r="J7">
-        <v>451</v>
-      </c>
-      <c r="K7">
-        <v>0.26400000000000001</v>
-      </c>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11"/>
+      <c r="I11" s="9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12"/>
+      <c r="F12" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13"/>
+      <c r="F13" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="I15"/>
+      <c r="L15"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="9"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9931,6 +10215,192 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="9" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C13" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C16" s="9">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I8"/>
   <sheetViews>
@@ -9951,21 +10421,21 @@
         <v>415</v>
       </c>
       <c r="D3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E3" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F3" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="I3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B4">
         <v>180</v>
@@ -9985,7 +10455,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B5">
         <v>1104</v>
@@ -10005,7 +10475,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B7">
         <v>154</v>
@@ -10025,7 +10495,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B8">
         <v>429</v>
@@ -10048,7 +10518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E211"/>
   <sheetViews>
@@ -10066,3589 +10536,3589 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C9" s="6">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C10" s="6">
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C11" s="6">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C12" s="6">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C13" s="6">
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C15" s="6">
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C16" s="6">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C17" s="6">
         <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C18" s="6">
         <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C19" s="6">
         <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C20" s="6">
         <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C21" s="6">
         <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C22" s="6">
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C23" s="6">
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C24" s="6">
         <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C25" s="6">
         <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C26" s="6">
         <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C27" s="6">
         <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C28" s="6">
         <v>26</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C29" s="6">
         <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C30" s="6">
         <v>28</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C31" s="6">
         <v>29</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C32" s="6">
         <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C33" s="6">
         <v>31</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C34" s="6">
         <v>32</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C35" s="6">
         <v>33</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C36" s="6">
         <v>34</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C37" s="6">
         <v>35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C38" s="6">
         <v>36</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C39" s="6">
         <v>37</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C40" s="6">
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C41" s="6">
         <v>39</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C42" s="6">
         <v>40</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C43" s="6">
         <v>41</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="C44" s="6">
         <v>42</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C45" s="6">
         <v>43</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C46" s="6">
         <v>44</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C47" s="6">
         <v>45</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C48" s="6">
         <v>46</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C49" s="6">
         <v>47</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C50" s="6">
         <v>48</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C51" s="6">
         <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C52" s="6">
         <v>50</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C53" s="6">
         <v>51</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C54" s="6">
         <v>52</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C55" s="6">
         <v>53</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C56" s="6">
         <v>54</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C57" s="6">
         <v>55</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C58" s="6">
         <v>56</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C59" s="6">
         <v>57</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="C60" s="6">
         <v>58</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C61" s="6">
         <v>59</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C62" s="6">
         <v>60</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C63" s="6">
         <v>61</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C64" s="6">
         <v>62</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C65" s="6">
         <v>63</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C66" s="6">
         <v>64</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C67" s="6">
         <v>65</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C68" s="6">
         <v>66</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C69" s="6">
         <v>67</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C70" s="6">
         <v>68</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C71" s="6">
         <v>69</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C72" s="6">
         <v>70</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C73" s="6">
         <v>71</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C74" s="6">
         <v>72</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C75" s="6">
         <v>73</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C76" s="6">
         <v>74</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C77" s="6">
         <v>75</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C78" s="6">
         <v>76</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C79" s="6">
         <v>77</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C80" s="6">
         <v>78</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="C81" s="6">
         <v>79</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C82" s="6">
         <v>80</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="C83" s="6">
         <v>81</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C84" s="6">
         <v>82</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C85" s="6">
         <v>83</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C86" s="6">
         <v>84</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C87" s="6">
         <v>85</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C88" s="6">
         <v>86</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C89" s="6">
         <v>87</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C90" s="6">
         <v>88</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C91" s="6">
         <v>89</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C92" s="6">
         <v>90</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C93" s="6">
         <v>91</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C94" s="6">
         <v>92</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C95" s="6">
         <v>93</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C96" s="6">
         <v>94</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="C97" s="6">
         <v>95</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C98" s="6">
         <v>96</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C99" s="6">
         <v>97</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C100" s="6">
         <v>98</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="C101" s="6">
         <v>99</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C102" s="6">
         <v>100</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="C103" s="6">
         <v>101</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C104" s="6">
         <v>102</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="C105" s="6">
         <v>103</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C106" s="6">
         <v>104</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C107" s="6">
         <v>105</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C108" s="6">
         <v>106</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C109" s="6">
         <v>107</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C110" s="6">
         <v>108</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C111" s="6">
         <v>109</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C112" s="6">
         <v>110</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C113" s="6">
         <v>111</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C114" s="6">
         <v>112</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C115" s="6">
         <v>113</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C116" s="6">
         <v>114</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C117" s="6">
         <v>115</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C118" s="6">
         <v>116</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C119" s="6">
         <v>117</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C120" s="6">
         <v>118</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C121" s="6">
         <v>119</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="C122" s="6">
         <v>120</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C123" s="6">
         <v>121</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C124" s="6">
         <v>122</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C125" s="6">
         <v>123</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C126" s="6">
         <v>124</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C127" s="6">
         <v>125</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C128" s="6">
         <v>126</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C129" s="6">
         <v>127</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C130" s="6">
         <v>128</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="C131" s="6">
         <v>129</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C132" s="6">
         <v>130</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C133" s="6">
         <v>131</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C134" s="6">
         <v>132</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="C135" s="6">
         <v>133</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C136" s="6">
         <v>134</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C137" s="6">
         <v>135</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C138" s="6">
         <v>136</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="C139" s="6">
         <v>137</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="C140" s="6">
         <v>138</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="C141" s="6">
         <v>139</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="C142" s="6">
         <v>140</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="C143" s="6">
         <v>141</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="C144" s="6">
         <v>142</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="C145" s="6">
         <v>143</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C146" s="6">
         <v>144</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C147" s="6">
         <v>145</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C148" s="6">
         <v>146</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C149" s="6">
         <v>147</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="C150" s="6">
         <v>148</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="C151" s="6">
         <v>149</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C152" s="6">
         <v>150</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="C153" s="6">
         <v>151</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="C154" s="6">
         <v>152</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="C155" s="6">
         <v>153</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="C156" s="6">
         <v>154</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="C157" s="6">
         <v>155</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="C158" s="6">
         <v>156</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="C159" s="6">
         <v>157</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="C160" s="6">
         <v>158</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="C161" s="6">
         <v>159</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="C162" s="6">
         <v>160</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="C163" s="6">
         <v>161</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="C164" s="6">
         <v>162</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="C165" s="6">
         <v>163</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="C166" s="6">
         <v>164</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="C167" s="6">
         <v>165</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="C168" s="6">
         <v>166</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="C169" s="6">
         <v>167</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="C170" s="6">
         <v>168</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C171" s="6">
         <v>169</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="C172" s="6">
         <v>170</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="C173" s="6">
         <v>171</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="C174" s="6">
         <v>172</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="C175" s="6">
         <v>173</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="C176" s="6">
         <v>174</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="C177" s="6">
         <v>175</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="C178" s="6">
         <v>176</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="C179" s="6">
         <v>177</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="C180" s="6">
         <v>178</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="C181" s="6">
         <v>179</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="C182" s="6">
         <v>180</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="C183" s="6">
         <v>181</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="C184" s="6">
         <v>182</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="C185" s="6">
         <v>183</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="C186" s="6">
         <v>184</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="C187" s="6">
         <v>185</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="C188" s="6">
         <v>186</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="C189" s="6">
         <v>187</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="C190" s="6">
         <v>188</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="C191" s="6">
         <v>189</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="C192" s="6">
         <v>190</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="C193" s="6">
         <v>191</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="C194" s="6">
         <v>192</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="C195" s="6">
         <v>193</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="C196" s="6">
         <v>194</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="C197" s="6">
         <v>195</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="C198" s="6">
         <v>196</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="C199" s="6">
         <v>197</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="C200" s="6">
         <v>198</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="C201" s="6">
         <v>199</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="C202" s="6">
         <v>200</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="C203" s="6">
         <v>201</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="C204" s="6">
         <v>202</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C205" s="6">
         <v>203</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="C206" s="6">
         <v>204</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="C207" s="6">
         <v>205</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="C208" s="6">
         <v>206</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="C209" s="6">
         <v>207</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="C210" s="6">
         <v>208</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="C211" s="6">
         <v>209</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>